--- a/data/trans_orig/P24D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>29730</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20822</v>
+        <v>21225</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39932</v>
+        <v>41053</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2622632932057007</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1836864488671302</v>
+        <v>0.1872356251190645</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3522613085248079</v>
+        <v>0.3621565788826367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>10461</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4890</v>
+        <v>5370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18065</v>
+        <v>18310</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1490889816768992</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06969194307308089</v>
+        <v>0.07653358501777516</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2574618444018531</v>
+        <v>0.2609593680689826</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -786,19 +786,19 @@
         <v>40191</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29444</v>
+        <v>30155</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51918</v>
+        <v>52806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2189937773033171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1604388729629171</v>
+        <v>0.1643135212577216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2828975303137651</v>
+        <v>0.287735922161196</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>83628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73426</v>
+        <v>72305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92536</v>
+        <v>92133</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7377367067942993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6477386914751925</v>
+        <v>0.6378434211173636</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8163135511328699</v>
+        <v>0.8127643748809356</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -836,19 +836,19 @@
         <v>59705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52101</v>
+        <v>51856</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65276</v>
+        <v>64796</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8509110183231008</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.742538155598147</v>
+        <v>0.7390406319310179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9303080569269201</v>
+        <v>0.9234664149822248</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>138</v>
@@ -857,19 +857,19 @@
         <v>143333</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131606</v>
+        <v>130718</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>154080</v>
+        <v>153369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7810062226966829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7171024696862349</v>
+        <v>0.712264077838804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8395611270370829</v>
+        <v>0.8356864787422784</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>65770</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52640</v>
+        <v>52775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80125</v>
+        <v>79423</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.343472709761207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2749031807281795</v>
+        <v>0.2756074166093478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4184357415725309</v>
+        <v>0.4147728180249023</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -982,19 +982,19 @@
         <v>49155</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39151</v>
+        <v>38382</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60149</v>
+        <v>59744</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4142615389906834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3299505689523437</v>
+        <v>0.3234731668376777</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5069163851056609</v>
+        <v>0.5035056010284955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -1003,19 +1003,19 @@
         <v>114925</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98744</v>
+        <v>97440</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133503</v>
+        <v>133699</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3705555452978391</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.318380623156748</v>
+        <v>0.3141792241808866</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4304575794337892</v>
+        <v>0.4310871089094431</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>125716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>111361</v>
+        <v>112063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>138846</v>
+        <v>138711</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.656527290238793</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5815642584274691</v>
+        <v>0.5852271819750978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7250968192718205</v>
+        <v>0.7243925833906523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -1053,19 +1053,19 @@
         <v>69501</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58507</v>
+        <v>58912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79505</v>
+        <v>80274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5857384610093167</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4930836148943391</v>
+        <v>0.4964943989715044</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6700494310476564</v>
+        <v>0.6765268331623223</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>191</v>
@@ -1074,19 +1074,19 @@
         <v>195218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>176640</v>
+        <v>176444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>211399</v>
+        <v>212703</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6294444547021609</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5695424205662108</v>
+        <v>0.5689128910905569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.681619376843252</v>
+        <v>0.6858207758191135</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>28537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19614</v>
+        <v>19112</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39228</v>
+        <v>38594</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1944129209611392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1336221892552666</v>
+        <v>0.1302007825239703</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2672502947057007</v>
+        <v>0.2629275879914637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1199,19 +1199,19 @@
         <v>26846</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19007</v>
+        <v>18975</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36154</v>
+        <v>35853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2858825647846928</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.20240832718516</v>
+        <v>0.2020668037584585</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3849980333466191</v>
+        <v>0.3818013118522943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1220,19 +1220,19 @@
         <v>55383</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43763</v>
+        <v>43717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69298</v>
+        <v>68608</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2300999980118115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.181821744186316</v>
+        <v>0.1816310814871285</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.287911538945964</v>
+        <v>0.2850447262155998</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>118248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>107557</v>
+        <v>108191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127171</v>
+        <v>127673</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8055870790388608</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7327497052942992</v>
+        <v>0.7370724120085363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8663778107447334</v>
+        <v>0.8697992174760297</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -1270,19 +1270,19 @@
         <v>67060</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57752</v>
+        <v>58053</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74899</v>
+        <v>74931</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7141174352153072</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6150019666533809</v>
+        <v>0.6181986881477048</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7975916728148399</v>
+        <v>0.7979331962415415</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>180</v>
@@ -1291,19 +1291,19 @@
         <v>185308</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>171393</v>
+        <v>172083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>196928</v>
+        <v>196974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7699000019881885</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7120884610540362</v>
+        <v>0.7149552737844002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8181782558136843</v>
+        <v>0.8183689185128715</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>50092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37844</v>
+        <v>39011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61962</v>
+        <v>61906</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2954960588774062</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2232431311711716</v>
+        <v>0.2301311740580337</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3655210311598968</v>
+        <v>0.3651911768242876</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1416,19 +1416,19 @@
         <v>40223</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30888</v>
+        <v>31337</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50405</v>
+        <v>49936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3959756360750738</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3040805210851534</v>
+        <v>0.3085024667675521</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4962142912661697</v>
+        <v>0.4915930605889597</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -1437,19 +1437,19 @@
         <v>90315</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76234</v>
+        <v>76027</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107245</v>
+        <v>106614</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3331453337238841</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2812047295734758</v>
+        <v>0.2804415952476132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3955961800771882</v>
+        <v>0.3932673464098076</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>119426</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107556</v>
+        <v>107612</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131674</v>
+        <v>130507</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7045039411225938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6344789688401035</v>
+        <v>0.6348088231757123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7767568688288284</v>
+        <v>0.7698688259419664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -1487,19 +1487,19 @@
         <v>61356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51174</v>
+        <v>51643</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70691</v>
+        <v>70242</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6040243639249262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5037857087338306</v>
+        <v>0.5084069394110402</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6959194789148465</v>
+        <v>0.6914975332324478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>185</v>
@@ -1508,19 +1508,19 @@
         <v>180782</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>163852</v>
+        <v>164483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>194863</v>
+        <v>195070</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6668546662761159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6044038199228121</v>
+        <v>0.6067326535901924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7187952704265245</v>
+        <v>0.7195584047523867</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>28621</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21195</v>
+        <v>20700</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37783</v>
+        <v>37797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3393912880499704</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2513383476821695</v>
+        <v>0.2454672425861026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4480459648774565</v>
+        <v>0.44821380314018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1633,19 +1633,19 @@
         <v>22206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14750</v>
+        <v>14650</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30283</v>
+        <v>30204</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3730441041081015</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2477932924619867</v>
+        <v>0.2461171620958763</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5087294941727362</v>
+        <v>0.5074091925148678</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1654,19 +1654,19 @@
         <v>50826</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37734</v>
+        <v>40019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61585</v>
+        <v>62656</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3533166131665506</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2623037850445815</v>
+        <v>0.2781924822271147</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4281034393602097</v>
+        <v>0.435550388176909</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>55708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46546</v>
+        <v>46532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63134</v>
+        <v>63629</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6606087119500296</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5519540351225435</v>
+        <v>0.5517861968598198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7486616523178304</v>
+        <v>0.754532757413897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -1704,19 +1704,19 @@
         <v>37320</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29243</v>
+        <v>29322</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44776</v>
+        <v>44876</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6269558958918986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4912705058272639</v>
+        <v>0.4925908074851314</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7522067075380134</v>
+        <v>0.7538828379041238</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -1725,19 +1725,19 @@
         <v>93029</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82270</v>
+        <v>81199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106121</v>
+        <v>103836</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6466833868334494</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5718965606397904</v>
+        <v>0.5644496118230909</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7376962149554186</v>
+        <v>0.7218075177728844</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>42631</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32424</v>
+        <v>32582</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54437</v>
+        <v>53181</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3428257781157091</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2607475698278593</v>
+        <v>0.262017183040319</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4377628531606937</v>
+        <v>0.4276625556681549</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -1850,19 +1850,19 @@
         <v>21935</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14323</v>
+        <v>14289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29089</v>
+        <v>29951</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3374239378703484</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.220333593870274</v>
+        <v>0.2197996318649924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4474689519029915</v>
+        <v>0.4607405699881361</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1871,19 +1871,19 @@
         <v>64566</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52305</v>
+        <v>51998</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78134</v>
+        <v>77329</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.34097131655105</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2762223527266492</v>
+        <v>0.2745992972386261</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4126230723404444</v>
+        <v>0.4083691390911368</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>81721</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69915</v>
+        <v>71171</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91928</v>
+        <v>91770</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6571742218842909</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5622371468393064</v>
+        <v>0.5723374443318451</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7392524301721407</v>
+        <v>0.737982816959681</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -1921,19 +1921,19 @@
         <v>43072</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35918</v>
+        <v>35056</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50684</v>
+        <v>50718</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6625760621296516</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5525310480970086</v>
+        <v>0.5392594300118638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.779666406129726</v>
+        <v>0.7802003681350073</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>123</v>
@@ -1942,19 +1942,19 @@
         <v>124794</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>111226</v>
+        <v>112031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137055</v>
+        <v>137362</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.65902868344895</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5873769276595556</v>
+        <v>0.5916308609088633</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7237776472733507</v>
+        <v>0.7254007027613738</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>82881</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68301</v>
+        <v>68638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98206</v>
+        <v>98085</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3527228361501712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2906714107831218</v>
+        <v>0.292108473054225</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4179399448518377</v>
+        <v>0.4174241718034425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -2067,19 +2067,19 @@
         <v>69267</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57218</v>
+        <v>56379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82999</v>
+        <v>82620</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4317960345810729</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3566840812451859</v>
+        <v>0.3514529586768325</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5173929616171536</v>
+        <v>0.5150298608617981</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -2088,19 +2088,19 @@
         <v>152148</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>134074</v>
+        <v>133684</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171950</v>
+        <v>171759</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3848039899212898</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3390921724957448</v>
+        <v>0.3381048664847998</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4348840969642381</v>
+        <v>0.4344021824372892</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>152095</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>136770</v>
+        <v>136891</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166675</v>
+        <v>166338</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6472771638498287</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5820600551481622</v>
+        <v>0.5825758281965575</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7093285892168781</v>
+        <v>0.7078915269457748</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>90</v>
@@ -2138,19 +2138,19 @@
         <v>91150</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>77418</v>
+        <v>77797</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103199</v>
+        <v>104038</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5682039654189271</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4826070383828463</v>
+        <v>0.4849701391382021</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6433159187548142</v>
+        <v>0.6485470413231675</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>240</v>
@@ -2159,19 +2159,19 @@
         <v>243244</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>223442</v>
+        <v>223633</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>261318</v>
+        <v>261708</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6151960100787103</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5651159030357619</v>
+        <v>0.5655978175627109</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6609078275042553</v>
+        <v>0.6618951335152002</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>92287</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>75872</v>
+        <v>75338</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110757</v>
+        <v>109502</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2920246226411072</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2400815006143441</v>
+        <v>0.238392558961006</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3504715763230518</v>
+        <v>0.3464982022858278</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -2284,19 +2284,19 @@
         <v>57917</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45744</v>
+        <v>45266</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71323</v>
+        <v>72704</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3126981897636116</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2469777211311683</v>
+        <v>0.2443967360481022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3850765595611994</v>
+        <v>0.3925320850932288</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>146</v>
@@ -2305,19 +2305,19 @@
         <v>150204</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>131036</v>
+        <v>129575</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>172725</v>
+        <v>172813</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2996638514578599</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2614236769807264</v>
+        <v>0.2585093513633269</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3445951720060176</v>
+        <v>0.3447704993343633</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>223737</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>205267</v>
+        <v>206522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>240152</v>
+        <v>240686</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7079753773588927</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6495284236769482</v>
+        <v>0.6535017977141723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7599184993856559</v>
+        <v>0.761607441038994</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -2355,19 +2355,19 @@
         <v>127300</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>113894</v>
+        <v>112513</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>139473</v>
+        <v>139951</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6873018102363884</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6149234404388005</v>
+        <v>0.6074679149067709</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7530222788688317</v>
+        <v>0.7556032639518978</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>338</v>
@@ -2376,19 +2376,19 @@
         <v>351036</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>328515</v>
+        <v>328427</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>370204</v>
+        <v>371665</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7003361485421401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6554048279939824</v>
+        <v>0.6552295006656366</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7385763230192736</v>
+        <v>0.7414906486366727</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>420548</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>386621</v>
+        <v>388755</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>452178</v>
+        <v>457470</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3045625170079075</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2799921690126399</v>
+        <v>0.2815375829657055</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3274687868622447</v>
+        <v>0.3313015520276268</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>289</v>
@@ -2501,19 +2501,19 @@
         <v>298010</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>271555</v>
+        <v>268865</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>324672</v>
+        <v>327039</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.348763877845962</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3178042204807369</v>
+        <v>0.3146560323284813</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3799666579407184</v>
+        <v>0.3827367057278952</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>696</v>
@@ -2522,19 +2522,19 @@
         <v>718558</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>671490</v>
+        <v>675655</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>764122</v>
+        <v>762533</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3214590841093062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3004022731049635</v>
+        <v>0.3022655502971323</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3418427170671687</v>
+        <v>0.3411321607454018</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>960280</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>928650</v>
+        <v>923358</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>994207</v>
+        <v>992073</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6954374829920925</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6725312131377552</v>
+        <v>0.668698447972373</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.72000783098736</v>
+        <v>0.7184624170342944</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>548</v>
@@ -2572,19 +2572,19 @@
         <v>556464</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>529802</v>
+        <v>527435</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>582919</v>
+        <v>585609</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.651236122154038</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6200333420592816</v>
+        <v>0.6172632942721048</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6821957795192631</v>
+        <v>0.6853439676715187</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1486</v>
@@ -2593,19 +2593,19 @@
         <v>1516744</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1471180</v>
+        <v>1472769</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1563812</v>
+        <v>1559647</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6785409158906938</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6581572829328312</v>
+        <v>0.6588678392545981</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6995977268950364</v>
+        <v>0.6977344497028676</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>92263</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80368</v>
+        <v>80085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102927</v>
+        <v>103221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6760194022289695</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5888611039464782</v>
+        <v>0.5867901666273232</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7541508697031941</v>
+        <v>0.7563052468838244</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -2962,19 +2962,19 @@
         <v>62532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51688</v>
+        <v>50904</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71735</v>
+        <v>72375</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.638533238198977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5277987758636765</v>
+        <v>0.5197971454117877</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.732505123169</v>
+        <v>0.7390413840983943</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>138</v>
@@ -2983,19 +2983,19 @@
         <v>154795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>138754</v>
+        <v>141354</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168824</v>
+        <v>170240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6603586061281764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5919261520289425</v>
+        <v>0.603016061282912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7202034452585584</v>
+        <v>0.726245072120636</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>44217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33553</v>
+        <v>33259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56112</v>
+        <v>56395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3239805977710305</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2458491302968062</v>
+        <v>0.2436947531161757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4111388960535226</v>
+        <v>0.4132098333726771</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -3033,19 +3033,19 @@
         <v>35399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26196</v>
+        <v>25556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46243</v>
+        <v>47027</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3614667618010231</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2674948768310001</v>
+        <v>0.2609586159016046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4722012241363235</v>
+        <v>0.4802028545882122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -3054,19 +3054,19 @@
         <v>79616</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65587</v>
+        <v>64171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>95657</v>
+        <v>93057</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3396413938718236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2797965547414415</v>
+        <v>0.2737549278793639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4080738479710572</v>
+        <v>0.3969839387170878</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>104731</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90735</v>
+        <v>89580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>121033</v>
+        <v>120299</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.503260196538814</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4360052817874133</v>
+        <v>0.4304556028163076</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5815966768711539</v>
+        <v>0.5780704205806855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -3179,19 +3179,19 @@
         <v>65994</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53060</v>
+        <v>53709</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78983</v>
+        <v>79655</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4364162606760704</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3508858954601909</v>
+        <v>0.3551790204331003</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5223119370396393</v>
+        <v>0.5267589612686608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -3200,19 +3200,19 @@
         <v>170725</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150799</v>
+        <v>149818</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190461</v>
+        <v>191103</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4751294431954142</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4196742112605684</v>
+        <v>0.4169445327257746</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5300560991027615</v>
+        <v>0.5318425148093187</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>103374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87072</v>
+        <v>87806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117370</v>
+        <v>118525</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.496739803461186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.418403323128846</v>
+        <v>0.4219295794193145</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5639947182125867</v>
+        <v>0.5695443971836924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -3250,19 +3250,19 @@
         <v>85224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72235</v>
+        <v>71563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98158</v>
+        <v>97509</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5635837393239296</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4776880629603608</v>
+        <v>0.473241038731339</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6491141045398091</v>
+        <v>0.6448209795668995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>176</v>
@@ -3271,19 +3271,19 @@
         <v>188598</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>168862</v>
+        <v>168220</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>208524</v>
+        <v>209505</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5248705568045858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4699439008972385</v>
+        <v>0.4681574851906813</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5803257887394315</v>
+        <v>0.5830554672742253</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>49866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38928</v>
+        <v>38864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61902</v>
+        <v>61176</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3925295895332494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3064294947383651</v>
+        <v>0.3059266436006869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4872774537166139</v>
+        <v>0.481563353173376</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -3396,19 +3396,19 @@
         <v>47615</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37161</v>
+        <v>37745</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56921</v>
+        <v>56473</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5686780230461839</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4438188658512857</v>
+        <v>0.4507948687228611</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6798252918068857</v>
+        <v>0.6744676282958585</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -3417,19 +3417,19 @@
         <v>97481</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83197</v>
+        <v>83292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112153</v>
+        <v>111407</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4625063512585411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3947348392535149</v>
+        <v>0.3951839297934053</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5321207626959598</v>
+        <v>0.5285783764960149</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>77171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65135</v>
+        <v>65861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88109</v>
+        <v>88173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6074704104667505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5127225462833854</v>
+        <v>0.518436646826624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6935705052616346</v>
+        <v>0.694073356399313</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -3467,19 +3467,19 @@
         <v>36114</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26808</v>
+        <v>27256</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46568</v>
+        <v>45984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4313219769538161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3201747081931144</v>
+        <v>0.3255323717041415</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5561811341487144</v>
+        <v>0.5492051312771389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>113</v>
@@ -3488,19 +3488,19 @@
         <v>113286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>98614</v>
+        <v>99360</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>127570</v>
+        <v>127475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.537493648741459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4678792373040402</v>
+        <v>0.4714216235039851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.605265160746485</v>
+        <v>0.6048160702065946</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>60151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46969</v>
+        <v>48008</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72327</v>
+        <v>71937</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4636415413806185</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3620378083686498</v>
+        <v>0.3700479818636218</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5574983151360492</v>
+        <v>0.5544906484146469</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -3613,19 +3613,19 @@
         <v>70879</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61468</v>
+        <v>60472</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79726</v>
+        <v>79732</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6816355676189116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5911252783597648</v>
+        <v>0.5815528294833444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7667120988462791</v>
+        <v>0.766772136700123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -3634,19 +3634,19 @@
         <v>131030</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116202</v>
+        <v>115256</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>147755</v>
+        <v>147604</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5606290013023832</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4971852889427897</v>
+        <v>0.4931385170780354</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6321907282079466</v>
+        <v>0.6315433025178033</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>69584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57408</v>
+        <v>57798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82766</v>
+        <v>81727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5363584586193815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.442501684863951</v>
+        <v>0.4455093515853532</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6379621916313503</v>
+        <v>0.6299520181363782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -3684,19 +3684,19 @@
         <v>33105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24258</v>
+        <v>24252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42516</v>
+        <v>43512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3183644323810884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2332879011537209</v>
+        <v>0.2332278632998764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4088747216402351</v>
+        <v>0.4184471705166555</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -3705,19 +3705,19 @@
         <v>102689</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85964</v>
+        <v>86115</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117517</v>
+        <v>118463</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4393709986976168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3678092717920533</v>
+        <v>0.3684566974821968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5028147110572102</v>
+        <v>0.5068614829219645</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>49153</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38893</v>
+        <v>39324</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59740</v>
+        <v>59048</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5377821281932896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.425535030875052</v>
+        <v>0.430249223492239</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6536202449120322</v>
+        <v>0.6460455620749059</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -3830,19 +3830,19 @@
         <v>34901</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25726</v>
+        <v>25681</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42375</v>
+        <v>42042</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5333352290096536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.393122954530932</v>
+        <v>0.3924439266061983</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6475514176830354</v>
+        <v>0.6424592207126973</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -3851,19 +3851,19 @@
         <v>84054</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70704</v>
+        <v>71131</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96328</v>
+        <v>96275</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5359267051978854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4508032720825438</v>
+        <v>0.4535279748704088</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6141812956876342</v>
+        <v>0.6138453975656329</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>42246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31659</v>
+        <v>32351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52506</v>
+        <v>52075</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4622178718067104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3463797550879677</v>
+        <v>0.353954437925094</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5744649691249478</v>
+        <v>0.569750776507761</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -3901,19 +3901,19 @@
         <v>30538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23064</v>
+        <v>23397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39713</v>
+        <v>39758</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4666647709903464</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3524485823169646</v>
+        <v>0.3575407792873027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.606877045469068</v>
+        <v>0.6075560733938019</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -3922,19 +3922,19 @@
         <v>72785</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>60511</v>
+        <v>60564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86135</v>
+        <v>85708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4640732948021146</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3858187043123662</v>
+        <v>0.386154602434367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5491967279174566</v>
+        <v>0.5464720251295917</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>45179</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35840</v>
+        <v>35522</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54195</v>
+        <v>53846</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5395181884203111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4279927967251003</v>
+        <v>0.4241947410004592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6471774851430339</v>
+        <v>0.6430196904567421</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -4047,19 +4047,19 @@
         <v>38125</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29041</v>
+        <v>29525</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45793</v>
+        <v>45620</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5700603993222081</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4342354018560078</v>
+        <v>0.4414724590045178</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.684716912847949</v>
+        <v>0.6821249886192933</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -4068,19 +4068,19 @@
         <v>83304</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70690</v>
+        <v>70920</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95375</v>
+        <v>95917</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5530797258686031</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4693300103460519</v>
+        <v>0.470854113141679</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.633217691746138</v>
+        <v>0.6368157594477324</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>38561</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29545</v>
+        <v>29894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47900</v>
+        <v>48218</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4604818115796889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3528225148569661</v>
+        <v>0.3569803095432578</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5720072032748996</v>
+        <v>0.5758052589995408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -4118,19 +4118,19 @@
         <v>28754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21086</v>
+        <v>21259</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37838</v>
+        <v>37354</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4299396006777919</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.315283087152051</v>
+        <v>0.3178750113807068</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5657645981439923</v>
+        <v>0.5585275409954823</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -4139,19 +4139,19 @@
         <v>67315</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>55244</v>
+        <v>54702</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>79929</v>
+        <v>79699</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.446920274131397</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3667823082538621</v>
+        <v>0.3631842405522676</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5306699896539482</v>
+        <v>0.529145886858321</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>107519</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88334</v>
+        <v>90805</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>125441</v>
+        <v>124109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3850400245564202</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3163377658912626</v>
+        <v>0.3251838423014236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4492199739524672</v>
+        <v>0.4444517722433091</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>87</v>
@@ -4264,19 +4264,19 @@
         <v>95426</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>80858</v>
+        <v>81285</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110802</v>
+        <v>109506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.493744092663985</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4183636243065416</v>
+        <v>0.4205738465809</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5733006522138013</v>
+        <v>0.5665912540672668</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>186</v>
@@ -4285,19 +4285,19 @@
         <v>202945</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182109</v>
+        <v>181022</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>224801</v>
+        <v>225200</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4295031004368405</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3854063132599006</v>
+        <v>0.3831057163176306</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4757579747405083</v>
+        <v>0.4766015326520622</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>171722</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>153800</v>
+        <v>155132</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>190907</v>
+        <v>188436</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6149599754435798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5507800260475327</v>
+        <v>0.5555482277566908</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6836622341087374</v>
+        <v>0.6748161576985762</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>90</v>
@@ -4335,19 +4335,19 @@
         <v>97845</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>82469</v>
+        <v>83765</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>112413</v>
+        <v>111986</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.506255907336015</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4266993477861986</v>
+        <v>0.4334087459327336</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5816363756934584</v>
+        <v>0.5794261534191003</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>253</v>
@@ -4356,19 +4356,19 @@
         <v>269567</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>247711</v>
+        <v>247312</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>290403</v>
+        <v>291490</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5704968995631595</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5242420252594918</v>
+        <v>0.5233984673479378</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6145936867400994</v>
+        <v>0.6168942836823694</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>117733</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>98492</v>
+        <v>101215</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>135586</v>
+        <v>136335</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3975391048248418</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3325710873752522</v>
+        <v>0.3417651131035398</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4578215737790936</v>
+        <v>0.4603509399796002</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -4481,19 +4481,19 @@
         <v>80685</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>66505</v>
+        <v>65968</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94848</v>
+        <v>95698</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3902677135127019</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3216785324411895</v>
+        <v>0.3190842471209655</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4587736775282405</v>
+        <v>0.4628857522605951</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>182</v>
@@ -4502,19 +4502,19 @@
         <v>198418</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>177481</v>
+        <v>176814</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>222009</v>
+        <v>221383</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3945498045742331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3529175221356253</v>
+        <v>0.3515915661565722</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4414595001936757</v>
+        <v>0.4402152706520178</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>178421</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>160568</v>
+        <v>159819</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>197662</v>
+        <v>194939</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6024608951751581</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5421784262209064</v>
+        <v>0.5396490600203998</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6674289126247479</v>
+        <v>0.6582348868964603</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -4552,19 +4552,19 @@
         <v>126058</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>111895</v>
+        <v>111045</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>140238</v>
+        <v>140775</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6097322864872982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5412263224717596</v>
+        <v>0.5371142477394049</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6783214675588105</v>
+        <v>0.6809157528790345</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>280</v>
@@ -4573,19 +4573,19 @@
         <v>304479</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>280888</v>
+        <v>281514</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>325416</v>
+        <v>326083</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6054501954257669</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5585404998063243</v>
+        <v>0.5597847293479823</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6470824778643747</v>
+        <v>0.6484084338434279</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>626595</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>591586</v>
+        <v>588685</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>666421</v>
+        <v>668591</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4634945261350615</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4375983314005255</v>
+        <v>0.4354526861293562</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4929542421415309</v>
+        <v>0.494559689594695</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>455</v>
@@ -4698,19 +4698,19 @@
         <v>496158</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>464266</v>
+        <v>465947</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>529072</v>
+        <v>531977</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5119281014416561</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.479022985276682</v>
+        <v>0.480757613417101</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.545888377354917</v>
+        <v>0.5488859933719186</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1030</v>
@@ -4719,19 +4719,19 @@
         <v>1122752</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1074246</v>
+        <v>1072021</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1167363</v>
+        <v>1174148</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4837184835017219</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4628205325941617</v>
+        <v>0.4618616833192177</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5029384449379944</v>
+        <v>0.5058615954984572</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>725297</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>685471</v>
+        <v>683301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>760306</v>
+        <v>763207</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5365054738649384</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5070457578584691</v>
+        <v>0.505440310405305</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5624016685994746</v>
+        <v>0.5645473138706431</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>438</v>
@@ -4769,19 +4769,19 @@
         <v>473036</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>440122</v>
+        <v>437217</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>504928</v>
+        <v>503247</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4880718985583439</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4541116226450831</v>
+        <v>0.4511140066280815</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5209770147233181</v>
+        <v>0.5192423865828995</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1130</v>
@@ -4790,19 +4790,19 @@
         <v>1198334</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1153723</v>
+        <v>1146938</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1246840</v>
+        <v>1249065</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5162815164982781</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4970615550620055</v>
+        <v>0.4941384045015428</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5371794674058382</v>
+        <v>0.5381383166807823</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>66639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55860</v>
+        <v>55105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76070</v>
+        <v>76473</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6267132498088821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5253438977393521</v>
+        <v>0.5182411728815562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7154115038000297</v>
+        <v>0.7192003247042977</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -5159,19 +5159,19 @@
         <v>41884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33344</v>
+        <v>33278</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50337</v>
+        <v>50243</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5681905181838165</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4523473780056168</v>
+        <v>0.4514511734908704</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6828746871112715</v>
+        <v>0.6815976334814632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -5180,19 +5180,19 @@
         <v>108523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96048</v>
+        <v>94507</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121641</v>
+        <v>122284</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6027529496041408</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5334674516756253</v>
+        <v>0.5249056215827277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6756151691946224</v>
+        <v>0.6791848109046621</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>39692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30261</v>
+        <v>29858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50471</v>
+        <v>51226</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.373286750191118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2845884961999703</v>
+        <v>0.280799675295702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4746561022606482</v>
+        <v>0.4817588271184439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -5230,19 +5230,19 @@
         <v>31830</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23377</v>
+        <v>23471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40370</v>
+        <v>40436</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4318094818161836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3171253128887285</v>
+        <v>0.3184023665185369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5476526219943834</v>
+        <v>0.5485488265091299</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -5251,19 +5251,19 @@
         <v>71522</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58404</v>
+        <v>57761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>83997</v>
+        <v>85538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3972470503958592</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3243848308053776</v>
+        <v>0.3208151890953381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.466532548324375</v>
+        <v>0.4750943784172725</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>40999</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30571</v>
+        <v>30399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54161</v>
+        <v>52630</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1961274463144613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1462429929933079</v>
+        <v>0.145422037120597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2590938283055997</v>
+        <v>0.2517685707822721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -5376,19 +5376,19 @@
         <v>37327</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27800</v>
+        <v>26975</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49507</v>
+        <v>48367</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2650148978018735</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1973788979253372</v>
+        <v>0.1915196094021671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.351491964304819</v>
+        <v>0.3434003661777414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -5397,19 +5397,19 @@
         <v>78326</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63883</v>
+        <v>64228</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95318</v>
+        <v>98235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2238581513480886</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1825788430499184</v>
+        <v>0.1835670385209951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2724236147356705</v>
+        <v>0.2807602079601126</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>168042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>154880</v>
+        <v>156411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>178470</v>
+        <v>178642</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8038725536855387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7409061716944007</v>
+        <v>0.7482314292177279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8537570070066921</v>
+        <v>0.854577962879403</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>99</v>
@@ -5447,19 +5447,19 @@
         <v>103521</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91341</v>
+        <v>92481</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113048</v>
+        <v>113873</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7349851021981265</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6485080356951808</v>
+        <v>0.6565996338222584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8026211020746628</v>
+        <v>0.8084803905978326</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>256</v>
@@ -5468,19 +5468,19 @@
         <v>271564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>254572</v>
+        <v>251655</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>286007</v>
+        <v>285662</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7761418486519114</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7275763852643296</v>
+        <v>0.7192397920398874</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.817421156950082</v>
+        <v>0.8164329614790049</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>35301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26620</v>
+        <v>26845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44844</v>
+        <v>45278</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3664555408507891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2763413448220184</v>
+        <v>0.278678317008198</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4655171719287506</v>
+        <v>0.4700290714538722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -5593,19 +5593,19 @@
         <v>40176</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31180</v>
+        <v>31522</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48877</v>
+        <v>49691</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4935452907813197</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3830321032549509</v>
+        <v>0.3872303534516027</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6004365605257579</v>
+        <v>0.6104376129030833</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -5614,19 +5614,19 @@
         <v>75477</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63061</v>
+        <v>61601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88899</v>
+        <v>88325</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4246633772693362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3548062647673359</v>
+        <v>0.3465933373336906</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5001785678904503</v>
+        <v>0.496950884983283</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>61030</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51487</v>
+        <v>51053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69711</v>
+        <v>69486</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6335444591492109</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5344828280712495</v>
+        <v>0.5299709285461282</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7236586551779816</v>
+        <v>0.721321682991802</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -5664,19 +5664,19 @@
         <v>41227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32526</v>
+        <v>31712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50223</v>
+        <v>49881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5064547092186803</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3995634394742421</v>
+        <v>0.3895623870969167</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6169678967450491</v>
+        <v>0.6127696465483973</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>107</v>
@@ -5685,19 +5685,19 @@
         <v>102257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>88835</v>
+        <v>89409</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>114673</v>
+        <v>116133</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5753366227306639</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4998214321095498</v>
+        <v>0.503049115016717</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6451937352326641</v>
+        <v>0.6534066626663094</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>88372</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75842</v>
+        <v>75046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99598</v>
+        <v>99411</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6344593075656999</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5444982826579964</v>
+        <v>0.5387887594054364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7150548622706329</v>
+        <v>0.7137113149161814</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -5810,19 +5810,19 @@
         <v>56794</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46009</v>
+        <v>46406</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67247</v>
+        <v>68371</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5222119773081646</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4230481284953002</v>
+        <v>0.4266931019982189</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6183235092273605</v>
+        <v>0.6286583546291026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -5831,19 +5831,19 @@
         <v>145166</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128734</v>
+        <v>128940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159665</v>
+        <v>162036</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5852434443846037</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5189956163945306</v>
+        <v>0.5198252670947555</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6436956294351776</v>
+        <v>0.6532543287223743</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>50915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39689</v>
+        <v>39876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63445</v>
+        <v>64241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3655406924343001</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2849451377293671</v>
+        <v>0.2862886850838185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4555017173420037</v>
+        <v>0.4612112405945636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -5881,19 +5881,19 @@
         <v>51963</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41510</v>
+        <v>40386</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62748</v>
+        <v>62351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4777880226918353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3816764907726393</v>
+        <v>0.3713416453708975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5769518715046996</v>
+        <v>0.5733068980017811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>95</v>
@@ -5902,19 +5902,19 @@
         <v>102878</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>88379</v>
+        <v>86008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>119310</v>
+        <v>119104</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4147565556153962</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3563043705648227</v>
+        <v>0.3467456712776257</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4810043836054695</v>
+        <v>0.4801747329052445</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>41327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32368</v>
+        <v>32339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49986</v>
+        <v>50215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4854499974093118</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3802143629876946</v>
+        <v>0.3798766059207571</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5871675492910258</v>
+        <v>0.5898512542479681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -6027,19 +6027,19 @@
         <v>29961</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22048</v>
+        <v>23024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36806</v>
+        <v>36891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5289527466718076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3892426955311992</v>
+        <v>0.4064826860880946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6497809528098865</v>
+        <v>0.6512908020708481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -6048,19 +6048,19 @@
         <v>71288</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60603</v>
+        <v>60169</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83515</v>
+        <v>83306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5028306693157716</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4274597752577294</v>
+        <v>0.4244037347002804</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5890714135204027</v>
+        <v>0.5875954112850816</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>43804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35145</v>
+        <v>34916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52763</v>
+        <v>52792</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5145500025906882</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4128324507089739</v>
+        <v>0.4101487457520318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6197856370123054</v>
+        <v>0.620123394079243</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -6098,19 +6098,19 @@
         <v>26682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19837</v>
+        <v>19752</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34595</v>
+        <v>33619</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4710472533281924</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3502190471901135</v>
+        <v>0.3487091979291518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6107573044688007</v>
+        <v>0.5935173139119053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -6119,19 +6119,19 @@
         <v>70486</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58259</v>
+        <v>58468</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81171</v>
+        <v>81605</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4971693306842285</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4109285864795973</v>
+        <v>0.4124045887149184</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5725402247422706</v>
+        <v>0.5755962652997196</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>40947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31216</v>
+        <v>31697</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49953</v>
+        <v>51192</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4640906095849345</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3538051346201255</v>
+        <v>0.3592575051084155</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5661676346974983</v>
+        <v>0.5802076177568187</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -6244,19 +6244,19 @@
         <v>23576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15863</v>
+        <v>15964</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31970</v>
+        <v>32274</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.322706564485288</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2171272035520687</v>
+        <v>0.2185079815714658</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4375918561891135</v>
+        <v>0.4417563911161373</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -6265,19 +6265,19 @@
         <v>64523</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52505</v>
+        <v>51902</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77236</v>
+        <v>77298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4000484535118288</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3255360963464484</v>
+        <v>0.3217954999545312</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4788696043524685</v>
+        <v>0.4792562657171663</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>47283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38277</v>
+        <v>37038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57014</v>
+        <v>56533</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5359093904150655</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4338323653025017</v>
+        <v>0.4197923822431819</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6461948653798745</v>
+        <v>0.6407424948915849</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>48</v>
@@ -6315,19 +6315,19 @@
         <v>49482</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41088</v>
+        <v>40784</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57195</v>
+        <v>57094</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.677293435514712</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5624081438108863</v>
+        <v>0.5582436088838625</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7828727964479311</v>
+        <v>0.7814920184285342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>93</v>
@@ -6336,19 +6336,19 @@
         <v>96765</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84052</v>
+        <v>83990</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108783</v>
+        <v>109386</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5999515464881713</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5211303956475317</v>
+        <v>0.5207437342828335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6744639036535517</v>
+        <v>0.6782045000454686</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>71247</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56296</v>
+        <v>59006</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85806</v>
+        <v>88427</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3621598896358247</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2861608095686112</v>
+        <v>0.2999346615662155</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4361627523630061</v>
+        <v>0.4494865003949004</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -6461,19 +6461,19 @@
         <v>66909</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53084</v>
+        <v>54278</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79700</v>
+        <v>81606</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3861595480435826</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3063731406145145</v>
+        <v>0.3132622317076383</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4599837544404147</v>
+        <v>0.470984565182255</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>123</v>
@@ -6482,19 +6482,19 @@
         <v>138156</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>119064</v>
+        <v>116871</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157361</v>
+        <v>156049</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3733988127860423</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3217987781994287</v>
+        <v>0.3158722646807867</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4253037817062074</v>
+        <v>0.4217583998558255</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>125482</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>110923</v>
+        <v>108302</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>140433</v>
+        <v>137723</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6378401103641752</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5638372476369934</v>
+        <v>0.5505134996050995</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7138391904313885</v>
+        <v>0.7000653384337845</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>103</v>
@@ -6532,19 +6532,19 @@
         <v>106358</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>93567</v>
+        <v>91661</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>120183</v>
+        <v>118989</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6138404519564175</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5400162455595853</v>
+        <v>0.529015434817745</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6936268593854857</v>
+        <v>0.6867377682923618</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>212</v>
@@ -6553,19 +6553,19 @@
         <v>231840</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>212635</v>
+        <v>213947</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>250932</v>
+        <v>253125</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6266011872139577</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5746962182937926</v>
+        <v>0.5782416001441745</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6782012218005713</v>
+        <v>0.6841277353192133</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>120288</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>103428</v>
+        <v>104732</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>136028</v>
+        <v>135173</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.471610240356336</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4055066217251914</v>
+        <v>0.4106186266545481</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.533320182854009</v>
+        <v>0.5299691185695147</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>108</v>
@@ -6678,19 +6678,19 @@
         <v>112781</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97214</v>
+        <v>96660</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>126711</v>
+        <v>126115</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5263058535211769</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4536601527719771</v>
+        <v>0.4510765989434359</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5913111825426997</v>
+        <v>0.5885326813551044</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>221</v>
@@ -6699,19 +6699,19 @@
         <v>233069</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>212518</v>
+        <v>212805</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>254633</v>
+        <v>253874</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4965824795115987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4527942233183413</v>
+        <v>0.4534070991644391</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5425270573445314</v>
+        <v>0.5409080324926685</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>134770</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>119030</v>
+        <v>119885</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>151630</v>
+        <v>150326</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.528389759643664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.466679817145991</v>
+        <v>0.4700308814304852</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5944933782748085</v>
+        <v>0.5893813733454519</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -6749,19 +6749,19 @@
         <v>101507</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>87577</v>
+        <v>88173</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>117074</v>
+        <v>117628</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4736941464788231</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4086888174573003</v>
+        <v>0.4114673186448957</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.546339847228023</v>
+        <v>0.5489234010565642</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>223</v>
@@ -6770,19 +6770,19 @@
         <v>236278</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>214714</v>
+        <v>215473</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>256829</v>
+        <v>256542</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5034175204884013</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4574729426554685</v>
+        <v>0.4590919675073316</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5472057766816586</v>
+        <v>0.546592900835561</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>505119</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>470059</v>
+        <v>471222</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>540516</v>
+        <v>541371</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4294729834921249</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3996632121177835</v>
+        <v>0.400652646948449</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4595690438990279</v>
+        <v>0.4602959068040458</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>395</v>
@@ -6895,19 +6895,19 @@
         <v>409409</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>377391</v>
+        <v>378497</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>440186</v>
+        <v>439121</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.444054082612383</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4093270889620211</v>
+        <v>0.4105270849277842</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4774363628215558</v>
+        <v>0.4762806211480431</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>865</v>
@@ -6916,19 +6916,19 @@
         <v>914528</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>872795</v>
+        <v>869834</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>964423</v>
+        <v>962106</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4358803808928052</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4159899018562353</v>
+        <v>0.4145786846894868</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4596614709656472</v>
+        <v>0.4585571734635802</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>671018</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>635621</v>
+        <v>634766</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>706078</v>
+        <v>704915</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5705270165078751</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5404309561009721</v>
+        <v>0.539704093195954</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6003367878822164</v>
+        <v>0.599347353051551</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>498</v>
@@ -6966,19 +6966,19 @@
         <v>512570</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>481793</v>
+        <v>482858</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>544588</v>
+        <v>543482</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5559459173876169</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5225636371784441</v>
+        <v>0.5237193788519571</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5906729110379787</v>
+        <v>0.5894729150722159</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1122</v>
@@ -6987,19 +6987,19 @@
         <v>1183588</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1133693</v>
+        <v>1136010</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1225321</v>
+        <v>1228282</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5641196191071949</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5403385290343528</v>
+        <v>0.5414428265364197</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5840100981437647</v>
+        <v>0.5854213153105132</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>35003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25953</v>
+        <v>26198</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43612</v>
+        <v>44010</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4608621346305311</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3417132986431655</v>
+        <v>0.3449298152248935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5742067822752316</v>
+        <v>0.5794499136713657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -7356,19 +7356,19 @@
         <v>31627</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25292</v>
+        <v>25557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37461</v>
+        <v>38200</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.476791995872943</v>
+        <v>0.4767919958729429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3812852598862333</v>
+        <v>0.3852849311160053</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5647426503399149</v>
+        <v>0.5758860766316004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -7377,19 +7377,19 @@
         <v>66630</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55846</v>
+        <v>55126</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77556</v>
+        <v>77472</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4682887016207009</v>
+        <v>0.4682887016207007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.392498057970872</v>
+        <v>0.3874341839795165</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5450822133328562</v>
+        <v>0.544490917347928</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>40948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32339</v>
+        <v>31941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49998</v>
+        <v>49753</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5391378653694689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4257932177247684</v>
+        <v>0.4205500863286346</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.658286701356835</v>
+        <v>0.6550701847751065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -7427,19 +7427,19 @@
         <v>34706</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28872</v>
+        <v>28133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41041</v>
+        <v>40776</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.523208004127057</v>
+        <v>0.5232080041270569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4352573496600851</v>
+        <v>0.4241139233683995</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6187147401137667</v>
+        <v>0.6147150688839946</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>95</v>
@@ -7448,19 +7448,19 @@
         <v>75654</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64728</v>
+        <v>64812</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86438</v>
+        <v>87158</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5317112983792992</v>
+        <v>0.5317112983792991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4549177866671439</v>
+        <v>0.4555090826520724</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.607501942029128</v>
+        <v>0.6125658160204835</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>51408</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38820</v>
+        <v>37888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64747</v>
+        <v>66070</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3891560321543334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2938681930121946</v>
+        <v>0.2868106354887204</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4901393029721539</v>
+        <v>0.5001477126354142</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -7573,19 +7573,19 @@
         <v>43745</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34972</v>
+        <v>34841</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53489</v>
+        <v>53237</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4311091889512005</v>
+        <v>0.4311091889512007</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3446531365019468</v>
+        <v>0.3433589315158517</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5271344486915894</v>
+        <v>0.5246486677235431</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -7594,19 +7594,19 @@
         <v>95153</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79050</v>
+        <v>79385</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112218</v>
+        <v>111702</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.407381851085437</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3384394366244866</v>
+        <v>0.3398770035809386</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4804451336741605</v>
+        <v>0.478235582662873</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>80692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>67353</v>
+        <v>66030</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93280</v>
+        <v>94212</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6108439678456664</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5098606970278463</v>
+        <v>0.4998522873645857</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7061318069878054</v>
+        <v>0.7131893645112796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -7644,19 +7644,19 @@
         <v>57726</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47982</v>
+        <v>48234</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66499</v>
+        <v>66630</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5688908110487992</v>
+        <v>0.5688908110487995</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4728655513084105</v>
+        <v>0.475351332276457</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6553468634980533</v>
+        <v>0.6566410684841484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -7665,19 +7665,19 @@
         <v>138418</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>121353</v>
+        <v>121869</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>154521</v>
+        <v>154186</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5926181489145631</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5195548663258394</v>
+        <v>0.521764417337127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6615605633755134</v>
+        <v>0.6601229964190609</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>31599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22670</v>
+        <v>23331</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40190</v>
+        <v>40962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3971728704812457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2849344249078428</v>
+        <v>0.2932435971614962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.50515132702453</v>
+        <v>0.5148491054727593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -7790,19 +7790,19 @@
         <v>33738</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27055</v>
+        <v>26686</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40505</v>
+        <v>40135</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5269803618818496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4225877270917763</v>
+        <v>0.4168251628233706</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6326704250606555</v>
+        <v>0.6268957272611527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -7811,19 +7811,19 @@
         <v>65338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54591</v>
+        <v>55307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76309</v>
+        <v>75718</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4550524069926983</v>
+        <v>0.4550524069926984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3802083825384148</v>
+        <v>0.3851907198176382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5314605464305436</v>
+        <v>0.5273485278607811</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>47962</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39371</v>
+        <v>38599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56891</v>
+        <v>56230</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6028271295187544</v>
+        <v>0.6028271295187543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.49484867297547</v>
+        <v>0.4851508945272409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7150655750921573</v>
+        <v>0.7067564028385039</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -7861,19 +7861,19 @@
         <v>30284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23517</v>
+        <v>23887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36967</v>
+        <v>37336</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4730196381181505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3673295749393445</v>
+        <v>0.3731042727388476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5774122729082238</v>
+        <v>0.5831748371766294</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -7882,19 +7882,19 @@
         <v>78245</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>67274</v>
+        <v>67865</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88992</v>
+        <v>88276</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5449475930073016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4685394535694558</v>
+        <v>0.4726514721392189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6197916174615847</v>
+        <v>0.6148092801823619</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>34460</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22275</v>
+        <v>22040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47216</v>
+        <v>49100</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.383661169546258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2479951074801402</v>
+        <v>0.2453833563318253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5256826707959512</v>
+        <v>0.5466534447898533</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -8007,19 +8007,19 @@
         <v>31910</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23170</v>
+        <v>23521</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41407</v>
+        <v>42029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4029373081493615</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2925795006278481</v>
+        <v>0.2970137812565302</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5228603740068869</v>
+        <v>0.5307131303512985</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -8028,19 +8028,19 @@
         <v>66370</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52285</v>
+        <v>52870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83882</v>
+        <v>83895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3926932570119102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.309358508242342</v>
+        <v>0.312820918856653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4963102585709431</v>
+        <v>0.4963833033170979</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>55359</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42603</v>
+        <v>40719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67544</v>
+        <v>67779</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.616338830453742</v>
+        <v>0.6163388304537419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4743173292040488</v>
+        <v>0.4533465552101461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7520048925198598</v>
+        <v>0.7546166436681747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -8078,19 +8078,19 @@
         <v>47283</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37786</v>
+        <v>37164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56023</v>
+        <v>55672</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5970626918506385</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4771396259931132</v>
+        <v>0.4692868696487015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7074204993721526</v>
+        <v>0.7029862187434699</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -8099,19 +8099,19 @@
         <v>102642</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85130</v>
+        <v>85117</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116727</v>
+        <v>116142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6073067429880898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5036897414290568</v>
+        <v>0.503616696682902</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6906414917576579</v>
+        <v>0.6871790811433467</v>
       </c>
     </row>
     <row r="15">
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4717</v>
+        <v>4655</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03576909993617398</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1147035068198185</v>
+        <v>0.1132023425717835</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -8224,19 +8224,19 @@
         <v>4059</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2042</v>
+        <v>2010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7178</v>
+        <v>7136</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1261615464737666</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06347945387869058</v>
+        <v>0.06248780974256967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2231066805788977</v>
+        <v>0.2218126278379194</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -8245,19 +8245,19 @@
         <v>5530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3025</v>
+        <v>2731</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9509</v>
+        <v>9765</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07544722638375968</v>
+        <v>0.07544722638375967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04126854880540497</v>
+        <v>0.03726471368937686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1297344392412181</v>
+        <v>0.1332280038875628</v>
       </c>
     </row>
     <row r="17">
@@ -8274,7 +8274,7 @@
         <v>39650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36404</v>
+        <v>36466</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>41121</v>
@@ -8283,7 +8283,7 @@
         <v>0.9642309000638261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8852964931801794</v>
+        <v>0.8867976574282167</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8295,19 +8295,19 @@
         <v>28113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24994</v>
+        <v>25036</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30130</v>
+        <v>30162</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8738384535262333</v>
+        <v>0.8738384535262335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7768933194211023</v>
+        <v>0.7781873721620809</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9365205461213093</v>
+        <v>0.9375121902574306</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -8316,19 +8316,19 @@
         <v>67763</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63784</v>
+        <v>63528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>70268</v>
+        <v>70562</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9245527736162403</v>
+        <v>0.9245527736162402</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8702655607587819</v>
+        <v>0.8667719961124372</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9587314511945951</v>
+        <v>0.9627352863106231</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>18598</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12587</v>
+        <v>12697</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25809</v>
+        <v>26322</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2447908466901465</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1656700884268028</v>
+        <v>0.167124085705945</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3397039595202927</v>
+        <v>0.346449924193226</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -8441,19 +8441,19 @@
         <v>12775</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8357</v>
+        <v>8126</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18359</v>
+        <v>17959</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2613309274957107</v>
+        <v>0.2613309274957108</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1709455753781414</v>
+        <v>0.1662289475117527</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3755562715599109</v>
+        <v>0.3673654049400222</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -8462,19 +8462,19 @@
         <v>31373</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23270</v>
+        <v>23323</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39918</v>
+        <v>40155</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2512666355312794</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1863639174416408</v>
+        <v>0.1867893655515002</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.319702412197652</v>
+        <v>0.3215940126577148</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>57377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50166</v>
+        <v>49653</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63388</v>
+        <v>63278</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7552091533098533</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6602960404797077</v>
+        <v>0.653550075806774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8343299115731971</v>
+        <v>0.8328759142940551</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -8512,19 +8512,19 @@
         <v>36111</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30527</v>
+        <v>30927</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40529</v>
+        <v>40760</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7386690725042893</v>
+        <v>0.7386690725042894</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6244437284400892</v>
+        <v>0.6326345950599774</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8290544246218589</v>
+        <v>0.8337710524882471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>124</v>
@@ -8533,19 +8533,19 @@
         <v>93488</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84943</v>
+        <v>84706</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101591</v>
+        <v>101538</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7487333644687205</v>
+        <v>0.7487333644687206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6802975878023478</v>
+        <v>0.6784059873422852</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8136360825583593</v>
+        <v>0.8132106344484998</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>98090</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82720</v>
+        <v>81435</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113583</v>
+        <v>113047</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5157348907253338</v>
+        <v>0.5157348907253337</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4349201825459474</v>
+        <v>0.4281660803220109</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5971927509221004</v>
+        <v>0.5943739659784231</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -8658,19 +8658,19 @@
         <v>97516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84765</v>
+        <v>84713</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108920</v>
+        <v>108868</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5618564108916075</v>
+        <v>0.5618564108916076</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4883898923579352</v>
+        <v>0.4880876181514541</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6275585366977467</v>
+        <v>0.6272599727710557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>205</v>
@@ -8679,19 +8679,19 @@
         <v>195607</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>175925</v>
+        <v>174724</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>215780</v>
+        <v>213792</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.537741081809155</v>
+        <v>0.5377410818091551</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4836356658223956</v>
+        <v>0.4803333092994501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5931994301292498</v>
+        <v>0.5877340879474897</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>92105</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>76612</v>
+        <v>77148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>107475</v>
+        <v>108760</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4842651092746662</v>
+        <v>0.484265109274666</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4028072490778997</v>
+        <v>0.4056260340215776</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5650798174540524</v>
+        <v>0.5718339196779895</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>93</v>
@@ -8729,19 +8729,19 @@
         <v>76045</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64641</v>
+        <v>64693</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>88796</v>
+        <v>88848</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4381435891083923</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.372441463302253</v>
+        <v>0.3727400272289444</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5116101076420647</v>
+        <v>0.5119123818485458</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>163</v>
@@ -8750,19 +8750,19 @@
         <v>168149</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>147976</v>
+        <v>149964</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>187831</v>
+        <v>189032</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4622589181908448</v>
+        <v>0.4622589181908449</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.40680056987075</v>
+        <v>0.4122659120525102</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5163643341776043</v>
+        <v>0.5196666907005499</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>49202</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37807</v>
+        <v>37478</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63172</v>
+        <v>63363</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2347013539268429</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1803461291540314</v>
+        <v>0.1787744649953918</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3013389043007345</v>
+        <v>0.3022509396384914</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -8875,19 +8875,19 @@
         <v>51660</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41556</v>
+        <v>41373</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62272</v>
+        <v>62427</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3817985120585672</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3071243780295864</v>
+        <v>0.3057688286098089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4602269298502015</v>
+        <v>0.4613710281256352</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -8896,19 +8896,19 @@
         <v>100863</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85286</v>
+        <v>85660</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>118582</v>
+        <v>118148</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2924013293974584</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2472446428622628</v>
+        <v>0.2483279206226735</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3437696870376311</v>
+        <v>0.3425107239132685</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>160436</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>146466</v>
+        <v>146275</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>171831</v>
+        <v>172160</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7652986460731573</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6986610956992649</v>
+        <v>0.6977490603615086</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.819653870845968</v>
+        <v>0.821225535004608</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -8946,19 +8946,19 @@
         <v>83648</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73036</v>
+        <v>72881</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93752</v>
+        <v>93935</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6182014879414328</v>
+        <v>0.6182014879414327</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5397730701497991</v>
+        <v>0.538628971874365</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6928756219704135</v>
+        <v>0.6942311713901912</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>233</v>
@@ -8967,19 +8967,19 @@
         <v>244083</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>226364</v>
+        <v>226798</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>259660</v>
+        <v>259286</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7075986706025416</v>
+        <v>0.7075986706025417</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.656230312962369</v>
+        <v>0.6574892760867316</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7527553571377372</v>
+        <v>0.7516720793773265</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>319831</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>286863</v>
+        <v>286271</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>352600</v>
+        <v>348104</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3576092723526599</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3207465042591486</v>
+        <v>0.3200846263691415</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3942483251732706</v>
+        <v>0.3892210022409142</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>419</v>
@@ -9092,19 +9092,19 @@
         <v>307031</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>285206</v>
+        <v>281461</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>331147</v>
+        <v>330202</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4380242229058431</v>
+        <v>0.438024222905843</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4068875612194174</v>
+        <v>0.4015457525343309</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4724288256389557</v>
+        <v>0.4710805821773825</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>714</v>
@@ -9113,19 +9113,19 @@
         <v>626863</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>584155</v>
+        <v>590905</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>666824</v>
+        <v>668897</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3929419802230763</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3661708958803392</v>
+        <v>0.3704022424972979</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4179911993741403</v>
+        <v>0.419290997686679</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>574529</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>541760</v>
+        <v>546256</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>607497</v>
+        <v>608089</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6423907276473401</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6057516748267295</v>
+        <v>0.610778997759086</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6792534957408516</v>
+        <v>0.6799153736308585</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>525</v>
@@ -9163,19 +9163,19 @@
         <v>393914</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>369798</v>
+        <v>370743</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>415739</v>
+        <v>419484</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.561975777094157</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5275711743610434</v>
+        <v>0.5289194178226175</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.593112438780582</v>
+        <v>0.5984542474656689</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1037</v>
@@ -9184,19 +9184,19 @@
         <v>968443</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>928482</v>
+        <v>926409</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1011151</v>
+        <v>1004401</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6070580197769239</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5820088006258597</v>
+        <v>0.580709002313321</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6338291041196609</v>
+        <v>0.6295977575027022</v>
       </c>
     </row>
     <row r="30">
